--- a/installationdocs/03.2_ParticipantAll.xlsx
+++ b/installationdocs/03.2_ParticipantAll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/o_ugur_exeter_ac_uk/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ou213\OneDrive - University of Exeter\Desktop\git\metadata-schema\installationdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048A6595D604E5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F6604A7-BDDF-485B-94B0-A787FCD276D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048D9138-4441-4588-B3F5-82BE50EEAA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -958,10 +958,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1230,7 +1226,7 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F6" sqref="F6:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,7 +1392,9 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1459,6 +1457,9 @@
       <c r="B4" s="12" t="s">
         <v>191</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
       <c r="V4" s="9" t="s">
         <v>237</v>
       </c>
@@ -1470,6 +1471,9 @@
       <c r="B5" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="V5" s="9" t="s">
         <v>194</v>
       </c>
@@ -1481,6 +1485,9 @@
       <c r="B6" s="14" t="s">
         <v>119</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="V6" s="9" t="s">
         <v>195</v>
       </c>
@@ -1492,6 +1499,9 @@
       <c r="B7" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="V7" s="9" t="s">
         <v>196</v>
       </c>
@@ -1503,6 +1513,9 @@
       <c r="B8" s="14" t="s">
         <v>123</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="V8" s="9" t="s">
         <v>197</v>
       </c>
@@ -1514,6 +1527,9 @@
       <c r="B9" s="15" t="s">
         <v>127</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="V9" s="9" t="s">
         <v>198</v>
       </c>
@@ -1525,6 +1541,9 @@
       <c r="B10" s="14" t="s">
         <v>131</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="V10" s="9" t="s">
         <v>199</v>
       </c>
@@ -1536,6 +1555,9 @@
       <c r="B11" s="14" t="s">
         <v>132</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="V11" s="9" t="s">
         <v>200</v>
       </c>
@@ -1547,6 +1569,9 @@
       <c r="B12" s="14" t="s">
         <v>133</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="V12" s="9" t="s">
         <v>201</v>
       </c>
@@ -1558,6 +1583,9 @@
       <c r="B13" s="14" t="s">
         <v>134</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
       <c r="V13" s="9" t="s">
         <v>202</v>
       </c>
@@ -1569,6 +1597,9 @@
       <c r="B14" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="V14" s="9" t="s">
         <v>203</v>
       </c>
@@ -1580,6 +1611,9 @@
       <c r="B15" s="14" t="s">
         <v>136</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
       <c r="V15" s="9" t="s">
         <v>204</v>
       </c>
@@ -1591,6 +1625,9 @@
       <c r="B16" s="16" t="s">
         <v>137</v>
       </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
       <c r="V16" s="9" t="s">
         <v>205</v>
       </c>
@@ -1602,6 +1639,9 @@
       <c r="B17" s="14" t="s">
         <v>138</v>
       </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
       <c r="V17" s="9" t="s">
         <v>206</v>
       </c>
@@ -1613,6 +1653,9 @@
       <c r="B18" s="15" t="s">
         <v>139</v>
       </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
       <c r="V18" s="9" t="s">
         <v>207</v>
       </c>
@@ -1624,6 +1667,9 @@
       <c r="B19" s="14" t="s">
         <v>143</v>
       </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
       <c r="V19" s="9" t="s">
         <v>208</v>
       </c>
@@ -1635,6 +1681,9 @@
       <c r="B20" s="14" t="s">
         <v>145</v>
       </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
       <c r="V20" s="9" t="s">
         <v>209</v>
       </c>
@@ -1646,6 +1695,9 @@
       <c r="B21" s="15" t="s">
         <v>146</v>
       </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
       <c r="V21" s="9" t="s">
         <v>210</v>
       </c>
@@ -1657,6 +1709,9 @@
       <c r="B22" s="14" t="s">
         <v>147</v>
       </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
       <c r="V22" s="9" t="s">
         <v>211</v>
       </c>
@@ -1668,6 +1723,9 @@
       <c r="B23" s="14" t="s">
         <v>148</v>
       </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
       <c r="V23" s="9" t="s">
         <v>212</v>
       </c>
@@ -1679,6 +1737,9 @@
       <c r="B24" s="14" t="s">
         <v>151</v>
       </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
       <c r="V24" s="9" t="s">
         <v>213</v>
       </c>
@@ -1690,6 +1751,9 @@
       <c r="B25" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
       <c r="V25" s="9" t="s">
         <v>214</v>
       </c>
@@ -1701,6 +1765,9 @@
       <c r="B26" s="14" t="s">
         <v>153</v>
       </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
       <c r="V26" s="9" t="s">
         <v>215</v>
       </c>
@@ -1712,6 +1779,9 @@
       <c r="B27" s="10" t="s">
         <v>156</v>
       </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="V27" s="9" t="s">
         <v>216</v>
       </c>
@@ -1723,6 +1793,9 @@
       <c r="B28" s="14" t="s">
         <v>158</v>
       </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
       <c r="V28" s="9" t="s">
         <v>217</v>
       </c>
@@ -1734,6 +1807,9 @@
       <c r="B29" s="14" t="s">
         <v>159</v>
       </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
       <c r="V29" s="9" t="s">
         <v>218</v>
       </c>
@@ -1745,6 +1821,9 @@
       <c r="B30" s="14" t="s">
         <v>161</v>
       </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
       <c r="V30" s="9" t="s">
         <v>219</v>
       </c>
@@ -1756,6 +1835,9 @@
       <c r="B31" s="14" t="s">
         <v>164</v>
       </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
       <c r="V31" s="9" t="s">
         <v>220</v>
       </c>
@@ -1767,6 +1849,9 @@
       <c r="B32" s="14" t="s">
         <v>172</v>
       </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
       <c r="V32" s="9" t="s">
         <v>226</v>
       </c>
@@ -1778,6 +1863,9 @@
       <c r="B33" s="14" t="s">
         <v>166</v>
       </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
       <c r="V33" s="9" t="s">
         <v>221</v>
       </c>
@@ -1789,6 +1877,9 @@
       <c r="B34" s="10" t="s">
         <v>167</v>
       </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
       <c r="V34" s="9" t="s">
         <v>222</v>
       </c>
@@ -1800,6 +1891,9 @@
       <c r="B35" s="14" t="s">
         <v>168</v>
       </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
       <c r="V35" s="9" t="s">
         <v>223</v>
       </c>
@@ -1811,6 +1905,9 @@
       <c r="B36" s="14" t="s">
         <v>169</v>
       </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
       <c r="V36" s="9" t="s">
         <v>224</v>
       </c>
@@ -1822,6 +1919,9 @@
       <c r="B37" s="14" t="s">
         <v>171</v>
       </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
       <c r="V37" s="9" t="s">
         <v>225</v>
       </c>
@@ -1833,6 +1933,9 @@
       <c r="B38" s="14" t="s">
         <v>175</v>
       </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
       <c r="V38" s="9" t="s">
         <v>227</v>
       </c>
@@ -1844,6 +1947,9 @@
       <c r="B39" s="14" t="s">
         <v>176</v>
       </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
       <c r="V39" s="9" t="s">
         <v>228</v>
       </c>
@@ -1855,6 +1961,9 @@
       <c r="B40" s="16" t="s">
         <v>178</v>
       </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
       <c r="V40" s="9" t="s">
         <v>229</v>
       </c>
@@ -1866,6 +1975,9 @@
       <c r="B41" s="14" t="s">
         <v>190</v>
       </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
       <c r="V41" s="9" t="s">
         <v>236</v>
       </c>
@@ -1877,6 +1989,9 @@
       <c r="B42" s="15" t="s">
         <v>189</v>
       </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
       <c r="V42" s="9" t="s">
         <v>235</v>
       </c>
@@ -1888,6 +2003,9 @@
       <c r="B43" s="14" t="s">
         <v>181</v>
       </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
       <c r="V43" s="9" t="s">
         <v>230</v>
       </c>
@@ -1899,6 +2017,9 @@
       <c r="B44" s="14" t="s">
         <v>183</v>
       </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
       <c r="V44" s="9" t="s">
         <v>231</v>
       </c>
@@ -1910,6 +2031,9 @@
       <c r="B45" s="18" t="s">
         <v>185</v>
       </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
       <c r="V45" s="9" t="s">
         <v>232</v>
       </c>
@@ -1921,6 +2045,9 @@
       <c r="B46" s="14" t="s">
         <v>187</v>
       </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
       <c r="V46" s="9" t="s">
         <v>233</v>
       </c>
@@ -1932,6 +2059,9 @@
       <c r="B47" s="14" t="s">
         <v>188</v>
       </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
       <c r="V47" s="9" t="s">
         <v>234</v>
       </c>
@@ -1943,6 +2073,9 @@
       <c r="B48" s="14" t="s">
         <v>122</v>
       </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
       <c r="V48" s="7" t="s">
         <v>240</v>
       </c>
@@ -1954,6 +2087,9 @@
       <c r="B49" s="14" t="s">
         <v>130</v>
       </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
       <c r="V49" s="7" t="s">
         <v>240</v>
       </c>
@@ -1965,6 +2101,9 @@
       <c r="B50" s="14" t="s">
         <v>155</v>
       </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
       <c r="V50" s="7" t="s">
         <v>240</v>
       </c>
@@ -1976,6 +2115,9 @@
       <c r="B51" s="14" t="s">
         <v>160</v>
       </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
       <c r="V51" s="7" t="s">
         <v>240</v>
       </c>
@@ -1987,6 +2129,9 @@
       <c r="B52" s="14" t="s">
         <v>163</v>
       </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
       <c r="V52" s="7" t="s">
         <v>240</v>
       </c>
@@ -1998,6 +2143,9 @@
       <c r="B53" s="14" t="s">
         <v>186</v>
       </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
       <c r="V53" s="7" t="s">
         <v>240</v>
       </c>
@@ -2009,6 +2157,9 @@
       <c r="B54" s="14" t="s">
         <v>117</v>
       </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
       <c r="V54" s="7"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -2018,6 +2169,9 @@
       <c r="B55" s="14" t="s">
         <v>121</v>
       </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
       <c r="V55" s="7"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
@@ -2027,6 +2181,9 @@
       <c r="B56" s="14" t="s">
         <v>124</v>
       </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
       <c r="V56" s="7"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -2036,6 +2193,9 @@
       <c r="B57" s="14" t="s">
         <v>125</v>
       </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
       <c r="V57" s="7"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
@@ -2045,6 +2205,9 @@
       <c r="B58" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
       <c r="V58" s="7"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -2054,6 +2217,9 @@
       <c r="B59" s="14" t="s">
         <v>128</v>
       </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
       <c r="V59" s="7"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
@@ -2063,6 +2229,9 @@
       <c r="B60" s="14" t="s">
         <v>129</v>
       </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
       <c r="V60" s="7"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
@@ -2072,6 +2241,9 @@
       <c r="B61" s="14" t="s">
         <v>140</v>
       </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
       <c r="V61" s="7"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -2081,6 +2253,9 @@
       <c r="B62" s="14" t="s">
         <v>141</v>
       </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
       <c r="V62" s="7"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
@@ -2090,6 +2265,9 @@
       <c r="B63" s="14" t="s">
         <v>142</v>
       </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
       <c r="V63" s="7"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
@@ -2099,6 +2277,9 @@
       <c r="B64" s="14" t="s">
         <v>144</v>
       </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
       <c r="V64" s="7"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
@@ -2108,6 +2289,9 @@
       <c r="B65" s="10" t="s">
         <v>149</v>
       </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
       <c r="V65" s="7"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
@@ -2117,6 +2301,9 @@
       <c r="B66" s="14" t="s">
         <v>150</v>
       </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
       <c r="V66" s="7"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
@@ -2126,6 +2313,9 @@
       <c r="B67" s="14" t="s">
         <v>154</v>
       </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
       <c r="V67" s="7"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
@@ -2135,6 +2325,9 @@
       <c r="B68" s="14" t="s">
         <v>157</v>
       </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
       <c r="V68" s="7"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
@@ -2144,6 +2337,9 @@
       <c r="B69" s="14" t="s">
         <v>162</v>
       </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
       <c r="V69" s="7"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
@@ -2153,6 +2349,9 @@
       <c r="B70" s="14" t="s">
         <v>165</v>
       </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
       <c r="V70" s="7"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
@@ -2162,6 +2361,9 @@
       <c r="B71" s="16" t="s">
         <v>170</v>
       </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
       <c r="V71" s="7"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -2171,6 +2373,9 @@
       <c r="B72" s="10" t="s">
         <v>173</v>
       </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
       <c r="V72" s="7"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
@@ -2180,6 +2385,9 @@
       <c r="B73" s="14" t="s">
         <v>174</v>
       </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
       <c r="V73" s="7"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
@@ -2189,6 +2397,9 @@
       <c r="B74" s="14" t="s">
         <v>177</v>
       </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
       <c r="V74" s="7"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
@@ -2198,6 +2409,9 @@
       <c r="B75" s="20" t="s">
         <v>179</v>
       </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
       <c r="V75" s="7"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
@@ -2207,6 +2421,9 @@
       <c r="B76" s="10" t="s">
         <v>180</v>
       </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
       <c r="V76" s="7"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
@@ -2216,6 +2433,9 @@
       <c r="B77" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
       <c r="V77" s="7"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
@@ -2225,6 +2445,9 @@
       <c r="B78" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
       <c r="V78" s="7"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
@@ -2234,6 +2457,9 @@
       <c r="B79" s="7" t="s">
         <v>191</v>
       </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
       <c r="V79" s="9" t="s">
         <v>237</v>
       </c>
@@ -2245,6 +2471,9 @@
       <c r="B80" s="7" t="s">
         <v>150</v>
       </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
       <c r="V80" s="7" t="s">
         <v>238</v>
       </c>
@@ -2256,6 +2485,9 @@
       <c r="B81" s="8" t="s">
         <v>192</v>
       </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
       <c r="V81" s="9" t="s">
         <v>239</v>
       </c>
@@ -2266,6 +2498,9 @@
       </c>
       <c r="B82" s="7" t="s">
         <v>193</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
       </c>
       <c r="V82" s="7"/>
     </row>
